--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Grem1-Kdr.xlsx
@@ -79,22 +79,22 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Grem1</t>
+  </si>
+  <si>
+    <t>Kdr</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Grem1</t>
-  </si>
-  <si>
-    <t>Kdr</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -546,10 +546,10 @@
         <v>3.788973</v>
       </c>
       <c r="I2">
-        <v>0.9683741421559858</v>
+        <v>0.9878740142699144</v>
       </c>
       <c r="J2">
-        <v>0.9683741421559857</v>
+        <v>0.9878740142699145</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N2">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O2">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P2">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q2">
-        <v>179.544695154003</v>
+        <v>150.316642894394</v>
       </c>
       <c r="R2">
-        <v>1615.902256386027</v>
+        <v>1352.849786049546</v>
       </c>
       <c r="S2">
-        <v>0.9200310170606772</v>
+        <v>0.9065006589024625</v>
       </c>
       <c r="T2">
-        <v>0.920031017060677</v>
+        <v>0.9065006589024626</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>3.788973</v>
       </c>
       <c r="I3">
-        <v>0.9683741421559858</v>
+        <v>0.9878740142699144</v>
       </c>
       <c r="J3">
-        <v>0.9683741421559857</v>
+        <v>0.9878740142699145</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P3">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q3">
         <v>0.287623887409</v>
@@ -638,10 +638,10 @@
         <v>2.588614986681</v>
       </c>
       <c r="S3">
-        <v>0.001473855283983021</v>
+        <v>0.001734546743673119</v>
       </c>
       <c r="T3">
-        <v>0.001473855283983021</v>
+        <v>0.001734546743673119</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>3.788973</v>
       </c>
       <c r="I4">
-        <v>0.9683741421559858</v>
+        <v>0.9878740142699144</v>
       </c>
       <c r="J4">
-        <v>0.9683741421559857</v>
+        <v>0.9878740142699145</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N4">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O4">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P4">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q4">
-        <v>5.779974746238</v>
+        <v>9.871918237287998</v>
       </c>
       <c r="R4">
-        <v>52.019772716142</v>
+        <v>88.847264135592</v>
       </c>
       <c r="S4">
-        <v>0.02961800703610383</v>
+        <v>0.0595336631687545</v>
       </c>
       <c r="T4">
-        <v>0.02961800703610382</v>
+        <v>0.0595336631687545</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,7 +717,7 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -732,10 +732,10 @@
         <v>3.788973</v>
       </c>
       <c r="I5">
-        <v>0.9683741421559858</v>
+        <v>0.9878740142699144</v>
       </c>
       <c r="J5">
-        <v>0.9683741421559857</v>
+        <v>0.9878740142699145</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N5">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O5">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P5">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q5">
-        <v>0.167753411599</v>
+        <v>0.132670889595</v>
       </c>
       <c r="R5">
-        <v>1.509780704391</v>
+        <v>1.194038006355</v>
       </c>
       <c r="S5">
-        <v>0.0008596095905615254</v>
+        <v>0.00080008604848591</v>
       </c>
       <c r="T5">
-        <v>0.0008596095905615251</v>
+        <v>0.0008000860484859101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>3.788973</v>
       </c>
       <c r="I6">
-        <v>0.9683741421559858</v>
+        <v>0.9878740142699144</v>
       </c>
       <c r="J6">
-        <v>0.9683741421559857</v>
+        <v>0.9878740142699145</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N6">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P6">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q6">
-        <v>3.198842560235</v>
+        <v>3.201179935579</v>
       </c>
       <c r="R6">
-        <v>28.789583042115</v>
+        <v>28.810619420211</v>
       </c>
       <c r="S6">
-        <v>0.01639165318466037</v>
+        <v>0.01930505940653848</v>
       </c>
       <c r="T6">
-        <v>0.01639165318466036</v>
+        <v>0.01930505940653848</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04124766666666667</v>
+        <v>0.015503</v>
       </c>
       <c r="H7">
-        <v>0.123743</v>
+        <v>0.046509</v>
       </c>
       <c r="I7">
-        <v>0.03162585784401424</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="J7">
-        <v>0.03162585784401423</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>142.158333</v>
+        <v>119.0164006666667</v>
       </c>
       <c r="N7">
-        <v>426.474999</v>
+        <v>357.049202</v>
       </c>
       <c r="O7">
-        <v>0.9500780504241082</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="P7">
-        <v>0.9500780504241081</v>
+        <v>0.9176278005170622</v>
       </c>
       <c r="Q7">
-        <v>5.863699533473</v>
+        <v>1.845111259535333</v>
       </c>
       <c r="R7">
-        <v>52.773295801257</v>
+        <v>16.606001335818</v>
       </c>
       <c r="S7">
-        <v>0.03004703336343104</v>
+        <v>0.01112714161459969</v>
       </c>
       <c r="T7">
-        <v>0.03004703336343103</v>
+        <v>0.01112714161459969</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04124766666666667</v>
+        <v>0.015503</v>
       </c>
       <c r="H8">
-        <v>0.123743</v>
+        <v>0.046509</v>
       </c>
       <c r="I8">
-        <v>0.03162585784401424</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="J8">
-        <v>0.03162585784401423</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>0.6831970000000001</v>
       </c>
       <c r="O8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330732</v>
       </c>
       <c r="P8">
-        <v>0.00152198950779668</v>
+        <v>0.001755838010330731</v>
       </c>
       <c r="Q8">
-        <v>0.009393427374555556</v>
+        <v>0.003530534363666667</v>
       </c>
       <c r="R8">
-        <v>0.08454084637100001</v>
+        <v>0.03177480927300001</v>
       </c>
       <c r="S8">
-        <v>4.8134223813659E-05</v>
+        <v>2.129126665761226E-05</v>
       </c>
       <c r="T8">
-        <v>4.813422381365898E-05</v>
+        <v>2.129126665761226E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04124766666666667</v>
+        <v>0.015503</v>
       </c>
       <c r="H9">
-        <v>0.123743</v>
+        <v>0.046509</v>
       </c>
       <c r="I9">
-        <v>0.03162585784401424</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="J9">
-        <v>0.03162585784401423</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.576418</v>
+        <v>7.816301333333333</v>
       </c>
       <c r="N9">
-        <v>13.729254</v>
+        <v>23.448904</v>
       </c>
       <c r="O9">
-        <v>0.03058529317001626</v>
+        <v>0.06026442877207647</v>
       </c>
       <c r="P9">
-        <v>0.03058529317001625</v>
+        <v>0.06026442877207646</v>
       </c>
       <c r="Q9">
-        <v>0.1887665641913334</v>
+        <v>0.1211761195706667</v>
       </c>
       <c r="R9">
-        <v>1.698899077722</v>
+        <v>1.090585076136</v>
       </c>
       <c r="S9">
-        <v>0.0009672861339124338</v>
+        <v>0.0007307656033219566</v>
       </c>
       <c r="T9">
-        <v>0.0009672861339124335</v>
+        <v>0.0007307656033219565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,16 +1036,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04124766666666667</v>
+        <v>0.015503</v>
       </c>
       <c r="H10">
-        <v>0.123743</v>
+        <v>0.046509</v>
       </c>
       <c r="I10">
-        <v>0.03162585784401424</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="J10">
-        <v>0.03162585784401423</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1328223333333333</v>
+        <v>0.105045</v>
       </c>
       <c r="N10">
-        <v>0.398467</v>
+        <v>0.315135</v>
       </c>
       <c r="O10">
-        <v>0.0008876833376071904</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="P10">
-        <v>0.0008876833376071903</v>
+        <v>0.000809906968832672</v>
       </c>
       <c r="Q10">
-        <v>0.005478611331222223</v>
+        <v>0.001628512635</v>
       </c>
       <c r="R10">
-        <v>0.04930750198100001</v>
+        <v>0.014656613715</v>
       </c>
       <c r="S10">
-        <v>2.80737470456651E-05</v>
+        <v>9.820920346761827E-06</v>
       </c>
       <c r="T10">
-        <v>2.807374704566509E-05</v>
+        <v>9.820920346761827E-06</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,7 +1089,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04124766666666667</v>
+        <v>0.015503</v>
       </c>
       <c r="H11">
-        <v>0.123743</v>
+        <v>0.046509</v>
       </c>
       <c r="I11">
-        <v>0.03162585784401424</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="J11">
-        <v>0.03162585784401423</v>
+        <v>0.01212598573008556</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.532751666666667</v>
+        <v>2.534602333333333</v>
       </c>
       <c r="N11">
-        <v>7.598255</v>
+        <v>7.603807</v>
       </c>
       <c r="O11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="P11">
-        <v>0.01692698356047181</v>
+        <v>0.01954202573169801</v>
       </c>
       <c r="Q11">
-        <v>0.1044700964961111</v>
+        <v>0.03929393997366667</v>
       </c>
       <c r="R11">
-        <v>0.940230868465</v>
+        <v>0.353645459763</v>
       </c>
       <c r="S11">
-        <v>0.0005353303758114475</v>
+        <v>0.0002369663251595348</v>
       </c>
       <c r="T11">
-        <v>0.0005353303758114474</v>
+        <v>0.0002369663251595348</v>
       </c>
     </row>
   </sheetData>
